--- a/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200215.xlsx
+++ b/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200215.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\疫情数据统计\内蒙古\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yiqing\COVID-19\data\unchecked\manual_collect\china\neimenggu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10765,8 +10765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AC18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
@@ -10962,7 +10962,7 @@
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N2" s="12">
         <v>19</v>
@@ -11121,7 +11121,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N5" s="13">
         <v>2</v>
